--- a/Calificaciones_1s_2025.xlsx
+++ b/Calificaciones_1s_2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Omar\Documents\Cursos\Física Computacional III para Astrofísica\2025_1s\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E910637-93AD-4251-80D2-42A9B017212F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92A8B16F-C7A6-47D5-B61A-58918C3B92A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22015" yWindow="887" windowWidth="22325" windowHeight="12050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-104" yWindow="-104" windowWidth="22326" windowHeight="12050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="nomina_curso_simple" sheetId="1" r:id="rId1"/>
@@ -270,7 +270,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -319,6 +319,12 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -573,10 +579,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -632,6 +643,11 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -654,14 +670,32 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{67E85CD1-4F22-4EBC-B3A4-73A33A749384}"/>
+    <cellStyle name="Normal 3" xfId="2" xr:uid="{CA89A1E3-E13E-4ADB-8752-895CCFF32D57}"/>
+    <cellStyle name="Normal 4" xfId="3" xr:uid="{8BA1E6F5-5D9F-4300-8BA7-F80D949531CD}"/>
+    <cellStyle name="Normal 5" xfId="4" xr:uid="{2C655FE6-0C66-40EF-AB21-F1FDA2CBF38B}"/>
+    <cellStyle name="Normal 6" xfId="5" xr:uid="{8502967F-F2F6-4CD0-9005-23248AD21CC2}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -915,8 +949,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -924,7 +958,7 @@
     <col min="1" max="1" width="4.21875" customWidth="1"/>
     <col min="2" max="2" width="12.44140625" customWidth="1"/>
     <col min="3" max="4" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" customWidth="1"/>
+    <col min="5" max="5" width="7.88671875" customWidth="1"/>
     <col min="6" max="6" width="9.21875" customWidth="1"/>
     <col min="7" max="7" width="6.44140625" customWidth="1"/>
     <col min="8" max="8" width="10.109375" customWidth="1"/>
@@ -937,10 +971,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="39.75" customHeight="1">
-      <c r="A1" s="21"/>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="23"/>
+      <c r="A1" s="24"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="26"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -952,27 +986,27 @@
       <c r="M1" s="1"/>
     </row>
     <row r="2" spans="1:13" ht="19.45" customHeight="1">
-      <c r="A2" s="24"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="26"/>
+      <c r="A2" s="27"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="29"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-      <c r="I2" s="30" t="s">
+      <c r="I2" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="31"/>
-      <c r="K2" s="32"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="35"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
     <row r="3" spans="1:13" ht="3.75" customHeight="1">
-      <c r="A3" s="27"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="29"/>
+      <c r="A3" s="30"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="32"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -999,19 +1033,19 @@
       <c r="M4" s="1"/>
     </row>
     <row r="5" spans="1:13" ht="15.7" customHeight="1">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="32"/>
-      <c r="C5" s="34" t="s">
+      <c r="B5" s="35"/>
+      <c r="C5" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="32"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="35"/>
       <c r="J5" s="2" t="s">
         <v>3</v>
       </c>
@@ -1022,23 +1056,23 @@
       <c r="M5" s="1"/>
     </row>
     <row r="6" spans="1:13" ht="15.7" customHeight="1">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="32"/>
-      <c r="C6" s="34" t="s">
+      <c r="B6" s="35"/>
+      <c r="C6" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="32"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="34"/>
+      <c r="M6" s="35"/>
     </row>
     <row r="7" spans="1:13" ht="4.5" customHeight="1">
       <c r="A7" s="1"/>
@@ -1078,10 +1112,10 @@
         <v>13</v>
       </c>
       <c r="H8" s="4"/>
-      <c r="I8" s="35"/>
-      <c r="J8" s="36"/>
-      <c r="K8" s="36"/>
-      <c r="L8" s="37"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="23"/>
       <c r="M8" s="16"/>
     </row>
     <row r="9" spans="1:13" ht="19.45" customHeight="1">
@@ -1095,7 +1129,9 @@
         <v>65</v>
       </c>
       <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
+      <c r="E9" s="38">
+        <v>34</v>
+      </c>
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
       <c r="H9" s="8"/>
@@ -1116,7 +1152,9 @@
         <v>37</v>
       </c>
       <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
+      <c r="E10" s="38">
+        <v>13</v>
+      </c>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
       <c r="H10" s="8"/>
@@ -1137,7 +1175,9 @@
         <v>68</v>
       </c>
       <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
+      <c r="E11" s="38">
+        <v>54</v>
+      </c>
       <c r="F11" s="14"/>
       <c r="G11" s="14"/>
       <c r="H11" s="13"/>
@@ -1158,7 +1198,9 @@
         <v>60</v>
       </c>
       <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
+      <c r="E12" s="38">
+        <v>33</v>
+      </c>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
       <c r="H12" s="8"/>
@@ -1179,7 +1221,9 @@
         <v>60</v>
       </c>
       <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
+      <c r="E13" s="38">
+        <v>40</v>
+      </c>
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
       <c r="H13" s="8"/>
@@ -1200,7 +1244,9 @@
         <v>40</v>
       </c>
       <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
+      <c r="E14" s="38">
+        <v>26</v>
+      </c>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
       <c r="H14" s="8"/>
@@ -1221,7 +1267,9 @@
         <v>70</v>
       </c>
       <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
+      <c r="E15" s="39">
+        <v>34</v>
+      </c>
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
       <c r="H15" s="8"/>
@@ -1242,7 +1290,9 @@
         <v>67</v>
       </c>
       <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
+      <c r="E16" s="39">
+        <v>22</v>
+      </c>
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
       <c r="H16" s="8"/>
@@ -1263,7 +1313,9 @@
         <v>70</v>
       </c>
       <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
+      <c r="E17" s="39">
+        <v>38</v>
+      </c>
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
       <c r="H17" s="8"/>
@@ -1284,7 +1336,9 @@
         <v>68</v>
       </c>
       <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
+      <c r="E18" s="39">
+        <v>36</v>
+      </c>
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
       <c r="H18" s="8"/>
@@ -1305,7 +1359,9 @@
         <v>55</v>
       </c>
       <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
+      <c r="E19" s="38">
+        <v>14</v>
+      </c>
       <c r="F19" s="9"/>
       <c r="G19" s="9"/>
       <c r="H19" s="8"/>
@@ -1326,7 +1382,7 @@
         <v>60</v>
       </c>
       <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
+      <c r="E20" s="38"/>
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
       <c r="H20" s="8"/>
@@ -1347,7 +1403,9 @@
         <v>68</v>
       </c>
       <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
+      <c r="E21" s="38">
+        <v>44</v>
+      </c>
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
       <c r="H21" s="8"/>
@@ -1368,7 +1426,9 @@
         <v>55</v>
       </c>
       <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
+      <c r="E22" s="38">
+        <v>26</v>
+      </c>
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
       <c r="H22" s="8"/>
@@ -1389,7 +1449,9 @@
         <v>57</v>
       </c>
       <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
+      <c r="E23" s="38">
+        <v>28</v>
+      </c>
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
       <c r="H23" s="8"/>
@@ -1410,7 +1472,9 @@
         <v>62</v>
       </c>
       <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
+      <c r="E24" s="38">
+        <v>10</v>
+      </c>
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
       <c r="H24" s="8"/>
@@ -1431,7 +1495,9 @@
         <v>57</v>
       </c>
       <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
+      <c r="E25" s="38">
+        <v>21</v>
+      </c>
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
       <c r="H25" s="8"/>
@@ -1452,7 +1518,9 @@
         <v>62</v>
       </c>
       <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
+      <c r="E26" s="38">
+        <v>25</v>
+      </c>
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
       <c r="H26" s="8"/>
@@ -1473,7 +1541,9 @@
         <v>70</v>
       </c>
       <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
+      <c r="E27" s="40">
+        <v>46</v>
+      </c>
       <c r="F27" s="9"/>
       <c r="G27" s="9"/>
       <c r="H27" s="8"/>
@@ -1492,7 +1562,7 @@
       </c>
       <c r="C28" s="14"/>
       <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
+      <c r="E28" s="38"/>
       <c r="F28" s="14"/>
       <c r="G28" s="14"/>
       <c r="H28" s="13"/>
@@ -1513,7 +1583,9 @@
         <v>70</v>
       </c>
       <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
+      <c r="E29" s="41">
+        <v>40</v>
+      </c>
       <c r="F29" s="14"/>
       <c r="G29" s="14"/>
       <c r="H29" s="13"/>
@@ -1534,7 +1606,9 @@
         <v>60</v>
       </c>
       <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
+      <c r="E30" s="41">
+        <v>48</v>
+      </c>
       <c r="F30" s="14"/>
       <c r="G30" s="14"/>
       <c r="H30" s="13"/>
@@ -1555,7 +1629,9 @@
         <v>70</v>
       </c>
       <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
+      <c r="E31" s="41">
+        <v>32</v>
+      </c>
       <c r="F31" s="14"/>
       <c r="G31" s="14"/>
       <c r="H31" s="13"/>
@@ -1574,7 +1650,7 @@
       </c>
       <c r="C32" s="14"/>
       <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
+      <c r="E32" s="38"/>
       <c r="F32" s="14"/>
       <c r="G32" s="14"/>
       <c r="H32" s="13"/>
@@ -1595,7 +1671,9 @@
         <v>65</v>
       </c>
       <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
+      <c r="E33" s="38">
+        <v>32</v>
+      </c>
       <c r="F33" s="14"/>
       <c r="G33" s="14"/>
       <c r="H33" s="13"/>
@@ -1616,7 +1694,9 @@
         <v>70</v>
       </c>
       <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
+      <c r="E34" s="38">
+        <v>20</v>
+      </c>
       <c r="F34" s="9"/>
       <c r="G34" s="9"/>
       <c r="H34" s="8"/>
@@ -1637,7 +1717,9 @@
         <v>34</v>
       </c>
       <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
+      <c r="E35" s="42">
+        <v>40</v>
+      </c>
       <c r="F35" s="9"/>
       <c r="G35" s="9"/>
       <c r="H35" s="8"/>
@@ -1658,7 +1740,9 @@
         <v>60</v>
       </c>
       <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
+      <c r="E36" s="38">
+        <v>55</v>
+      </c>
       <c r="F36" s="9"/>
       <c r="G36" s="9"/>
       <c r="H36" s="8"/>
@@ -1679,7 +1763,9 @@
         <v>70</v>
       </c>
       <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
+      <c r="E37" s="43">
+        <v>56</v>
+      </c>
       <c r="F37" s="9"/>
       <c r="G37" s="9"/>
       <c r="H37" s="8"/>
@@ -1700,7 +1786,9 @@
         <v>30</v>
       </c>
       <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
+      <c r="E38" s="43">
+        <v>10</v>
+      </c>
       <c r="F38" s="9"/>
       <c r="G38" s="9"/>
       <c r="H38" s="8"/>
@@ -1721,7 +1809,9 @@
         <v>70</v>
       </c>
       <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
+      <c r="E39" s="43">
+        <v>18</v>
+      </c>
       <c r="F39" s="9"/>
       <c r="G39" s="9"/>
       <c r="H39" s="8"/>
@@ -1741,7 +1831,10 @@
         <v>60.344827586206897</v>
       </c>
       <c r="D41" s="12"/>
-      <c r="E41" s="12"/>
+      <c r="E41" s="11">
+        <f>AVERAGE(E9:E39)</f>
+        <v>31.964285714285715</v>
+      </c>
       <c r="F41" s="12"/>
       <c r="G41" s="12"/>
       <c r="H41" s="12"/>
@@ -2710,22 +2803,33 @@
     <row r="1000" ht="11.95" customHeight="1"/>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="I13:L13"/>
-    <mergeCell ref="I26:L26"/>
-    <mergeCell ref="I27:L27"/>
-    <mergeCell ref="I28:L28"/>
-    <mergeCell ref="I29:L29"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="I25:L25"/>
+    <mergeCell ref="I38:L38"/>
+    <mergeCell ref="I39:L39"/>
+    <mergeCell ref="I35:L35"/>
+    <mergeCell ref="I36:L36"/>
+    <mergeCell ref="I37:L37"/>
+    <mergeCell ref="I34:L34"/>
+    <mergeCell ref="I32:L32"/>
+    <mergeCell ref="I30:L30"/>
+    <mergeCell ref="I31:L31"/>
+    <mergeCell ref="I33:L33"/>
     <mergeCell ref="A1:D3"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="C5:I5"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="C6:M6"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="I13:L13"/>
+    <mergeCell ref="I26:L26"/>
+    <mergeCell ref="I27:L27"/>
+    <mergeCell ref="I28:L28"/>
+    <mergeCell ref="I29:L29"/>
     <mergeCell ref="I14:L14"/>
     <mergeCell ref="I15:L15"/>
     <mergeCell ref="I16:L16"/>
@@ -2737,17 +2841,6 @@
     <mergeCell ref="I22:L22"/>
     <mergeCell ref="I23:L23"/>
     <mergeCell ref="I24:L24"/>
-    <mergeCell ref="I25:L25"/>
-    <mergeCell ref="I38:L38"/>
-    <mergeCell ref="I39:L39"/>
-    <mergeCell ref="I35:L35"/>
-    <mergeCell ref="I36:L36"/>
-    <mergeCell ref="I37:L37"/>
-    <mergeCell ref="I34:L34"/>
-    <mergeCell ref="I32:L32"/>
-    <mergeCell ref="I30:L30"/>
-    <mergeCell ref="I31:L31"/>
-    <mergeCell ref="I33:L33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
